--- a/skrypt tworzenie pliku do banku/plik_testowy.xlsx
+++ b/skrypt tworzenie pliku do banku/plik_testowy.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="43">
   <si>
     <t xml:space="preserve">Lp</t>
   </si>
@@ -370,8 +370,8 @@
   </sheetPr>
   <dimension ref="A1:AE6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X10" activeCellId="0" sqref="X10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -670,13 +670,62 @@
       <c r="AE4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E5" s="2"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="V5" s="1"/>
+      <c r="A5" s="1" t="n">
+        <v>112039</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>45862</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>226.02</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>51.98</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="0"/>
+      <c r="O5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S5" s="1" t="n">
+        <v>6852326468</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E6" s="2"/>
